--- a/nuon/instagram_posts_orcite_official.xlsx
+++ b/nuon/instagram_posts_orcite_official.xlsx
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2910,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -3004,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E42">
         <v>16</v>
@@ -3051,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3192,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -3239,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -3286,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -3333,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>2</v>
